--- a/data/nf_data.xlsx
+++ b/data/nf_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27630"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27706"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wavetulane-my.sharepoint.com/personal/mvelasquez_tulane_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F0F663B-3306-486A-B0BC-4D855D716462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{743309E8-72AA-4F91-ABEB-83E75AC12D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -214,13 +214,10 @@
     </comment>
     <comment ref="A74" authorId="17" shapeId="0" xr:uid="{8D7D4BF6-8CC3-47F6-B95A-EA6DE3B081C8}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    alpha/theta ratio used for NF. only alpha is entered since ratio was not provided
-Reply:
-    it is unclear what the variance value is
-</t>
+    alpha/theta ratio used for NF. only alpha is entered since ratio was not provided</t>
       </text>
     </comment>
     <comment ref="A85" authorId="18" shapeId="0" xr:uid="{C61C8900-1A08-4394-9DC1-BE02E5DFE130}">
@@ -238,7 +235,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3994" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3994" uniqueCount="753">
   <si>
     <t>author</t>
   </si>
@@ -1993,9 +1990,6 @@
   </si>
   <si>
     <t>Mean Spectral Power</t>
-  </si>
-  <si>
-    <t>margin of error?</t>
   </si>
   <si>
     <t>Pre-Intervention, During Intervention, Post-Intervention</t>
@@ -3919,10 +3913,6 @@
   <threadedComment ref="A74" dT="2024-03-20T02:02:40.75" personId="{4BB3AD93-3019-4F9A-BB99-D8F462CC0442}" id="{8D7D4BF6-8CC3-47F6-B95A-EA6DE3B081C8}">
     <text>alpha/theta ratio used for NF. only alpha is entered since ratio was not provided</text>
   </threadedComment>
-  <threadedComment ref="A74" dT="2024-05-06T20:34:12.00" personId="{946B3E7D-BF1C-4456-869B-0DA1167045BC}" id="{19974247-730D-4EEB-A6EE-2DFE8D12C9C6}" parentId="{8D7D4BF6-8CC3-47F6-B95A-EA6DE3B081C8}">
-    <text xml:space="preserve">it is unclear what the variance value is
-</text>
-  </threadedComment>
   <threadedComment ref="A85" dT="2024-03-20T17:53:19.83" personId="{4BB3AD93-3019-4F9A-BB99-D8F462CC0442}" id="{C61C8900-1A08-4394-9DC1-BE02E5DFE130}">
     <text>target SMR ERD, but contralateral and ipsilateral % ERD reported.</text>
   </threadedComment>
@@ -3937,8 +3927,8 @@
   <dimension ref="A1:DW85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="BW98" sqref="BW98"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C59" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="E82" sqref="E82"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -24554,7 +24544,7 @@
         <v>582</v>
       </c>
       <c r="E74" s="33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G74" t="s">
         <v>583</v>
@@ -24681,13 +24671,13 @@
         <v>0</v>
       </c>
       <c r="BC74" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="BD74" t="s">
         <v>585</v>
       </c>
-      <c r="BD74" t="s">
+      <c r="BE74" t="s">
         <v>586</v>
-      </c>
-      <c r="BE74" t="s">
-        <v>587</v>
       </c>
       <c r="BH74">
         <v>1</v>
@@ -24832,22 +24822,22 @@
     </row>
     <row r="75" spans="1:127">
       <c r="A75" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B75">
         <v>2020</v>
       </c>
       <c r="C75" t="s">
+        <v>588</v>
+      </c>
+      <c r="D75" t="s">
         <v>589</v>
-      </c>
-      <c r="D75" t="s">
-        <v>590</v>
       </c>
       <c r="E75" s="33">
         <v>0</v>
       </c>
       <c r="F75" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G75" t="s">
         <v>217</v>
@@ -24907,10 +24897,10 @@
         <v>14</v>
       </c>
       <c r="AD75" t="s">
+        <v>591</v>
+      </c>
+      <c r="AE75" t="s">
         <v>592</v>
-      </c>
-      <c r="AE75" t="s">
-        <v>593</v>
       </c>
       <c r="AF75">
         <v>350</v>
@@ -24925,7 +24915,7 @@
         <v>148</v>
       </c>
       <c r="AK75" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AL75">
         <v>2</v>
@@ -24954,7 +24944,7 @@
       <c r="AT75" s="39"/>
       <c r="AU75" s="39"/>
       <c r="AW75" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AX75" t="s">
         <v>133</v>
@@ -24972,10 +24962,10 @@
         <v>136</v>
       </c>
       <c r="BD75" t="s">
+        <v>595</v>
+      </c>
+      <c r="BE75" t="s">
         <v>596</v>
-      </c>
-      <c r="BE75" t="s">
-        <v>597</v>
       </c>
       <c r="BH75" t="s">
         <v>132</v>
@@ -25134,22 +25124,22 @@
     </row>
     <row r="76" spans="1:127">
       <c r="A76" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B76">
         <v>2020</v>
       </c>
       <c r="C76" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D76" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E76" s="33">
         <v>0</v>
       </c>
       <c r="F76" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AB76" s="37"/>
       <c r="AC76">
@@ -25176,7 +25166,7 @@
       <c r="AT76" s="39"/>
       <c r="AU76" s="39"/>
       <c r="AW76" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AX76" t="s">
         <v>133</v>
@@ -25194,10 +25184,10 @@
         <v>136</v>
       </c>
       <c r="BD76" t="s">
+        <v>595</v>
+      </c>
+      <c r="BE76" t="s">
         <v>596</v>
-      </c>
-      <c r="BE76" t="s">
-        <v>597</v>
       </c>
       <c r="BH76" t="s">
         <v>132</v>
@@ -25318,16 +25308,16 @@
     </row>
     <row r="77" spans="1:127">
       <c r="A77" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B77">
         <v>2017</v>
       </c>
       <c r="C77" t="s">
+        <v>599</v>
+      </c>
+      <c r="D77" t="s">
         <v>600</v>
-      </c>
-      <c r="D77" t="s">
-        <v>601</v>
       </c>
       <c r="E77" s="33">
         <v>0</v>
@@ -25369,7 +25359,7 @@
         <v>3</v>
       </c>
       <c r="T77" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="W77">
         <v>20</v>
@@ -25426,7 +25416,7 @@
         <v>1</v>
       </c>
       <c r="AS77" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AT77" s="39">
         <v>8</v>
@@ -25445,7 +25435,7 @@
         <v>247</v>
       </c>
       <c r="AY77" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AZ77" t="s">
         <v>154</v>
@@ -25457,10 +25447,10 @@
         <v>212</v>
       </c>
       <c r="BD77" t="s">
+        <v>604</v>
+      </c>
+      <c r="BE77" t="s">
         <v>605</v>
-      </c>
-      <c r="BE77" t="s">
-        <v>606</v>
       </c>
       <c r="BH77">
         <v>1</v>
@@ -25619,16 +25609,16 @@
     </row>
     <row r="78" spans="1:127">
       <c r="A78" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B78">
         <v>2022</v>
       </c>
       <c r="C78" t="s">
+        <v>606</v>
+      </c>
+      <c r="D78" t="s">
         <v>607</v>
-      </c>
-      <c r="D78" t="s">
-        <v>608</v>
       </c>
       <c r="E78" s="33">
         <v>0</v>
@@ -25667,7 +25657,7 @@
         <v>1</v>
       </c>
       <c r="AA78" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AC78">
         <v>3</v>
@@ -25699,13 +25689,13 @@
       <c r="AT78" s="39"/>
       <c r="AU78" s="39"/>
       <c r="AW78" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AX78" t="s">
         <v>133</v>
       </c>
       <c r="AY78" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AZ78" t="s">
         <v>407</v>
@@ -25717,7 +25707,7 @@
         <v>136</v>
       </c>
       <c r="BD78" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="BH78" t="s">
         <v>132</v>
@@ -25876,16 +25866,16 @@
     </row>
     <row r="79" spans="1:127">
       <c r="A79" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B79">
         <v>2013</v>
       </c>
       <c r="C79" t="s">
+        <v>612</v>
+      </c>
+      <c r="D79" t="s">
         <v>613</v>
-      </c>
-      <c r="D79" t="s">
-        <v>614</v>
       </c>
       <c r="E79" s="33">
         <v>0</v>
@@ -25918,7 +25908,7 @@
         <v>2</v>
       </c>
       <c r="R79" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="S79" t="s">
         <v>162</v>
@@ -25978,7 +25968,7 @@
         <v>1</v>
       </c>
       <c r="AR79" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AS79" t="s">
         <v>189</v>
@@ -26000,7 +25990,7 @@
         <v>133</v>
       </c>
       <c r="AY79" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AZ79" t="s">
         <v>154</v>
@@ -26012,10 +26002,10 @@
         <v>212</v>
       </c>
       <c r="BD79" t="s">
+        <v>617</v>
+      </c>
+      <c r="BE79" t="s">
         <v>618</v>
-      </c>
-      <c r="BE79" t="s">
-        <v>619</v>
       </c>
       <c r="BF79" t="s">
         <v>157</v>
@@ -26181,22 +26171,22 @@
     </row>
     <row r="80" spans="1:127">
       <c r="A80" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B80">
         <v>2017</v>
       </c>
       <c r="C80" t="s">
+        <v>620</v>
+      </c>
+      <c r="D80" t="s">
         <v>621</v>
-      </c>
-      <c r="D80" t="s">
-        <v>622</v>
       </c>
       <c r="E80" s="33">
         <v>0</v>
       </c>
       <c r="F80" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G80" t="s">
         <v>539</v>
@@ -26287,13 +26277,13 @@
         <v>3</v>
       </c>
       <c r="AW80" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AX80" t="s">
         <v>133</v>
       </c>
       <c r="AY80" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AZ80" t="s">
         <v>407</v>
@@ -26305,10 +26295,10 @@
         <v>212</v>
       </c>
       <c r="BD80" t="s">
+        <v>625</v>
+      </c>
+      <c r="BE80" t="s">
         <v>626</v>
-      </c>
-      <c r="BE80" t="s">
-        <v>627</v>
       </c>
       <c r="BF80" t="s">
         <v>157</v>
@@ -26470,22 +26460,22 @@
     </row>
     <row r="81" spans="1:127">
       <c r="A81" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B81">
         <v>2017</v>
       </c>
       <c r="C81" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D81" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E81" s="33">
         <v>0</v>
       </c>
       <c r="F81" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G81" t="s">
         <v>539</v>
@@ -26572,13 +26562,13 @@
         <v>2</v>
       </c>
       <c r="AW81" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AX81" t="s">
         <v>247</v>
       </c>
       <c r="AY81" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AZ81" t="s">
         <v>407</v>
@@ -26590,10 +26580,10 @@
         <v>212</v>
       </c>
       <c r="BD81" t="s">
+        <v>625</v>
+      </c>
+      <c r="BE81" t="s">
         <v>626</v>
-      </c>
-      <c r="BE81" t="s">
-        <v>627</v>
       </c>
       <c r="BF81" t="s">
         <v>157</v>
@@ -26755,22 +26745,22 @@
     </row>
     <row r="82" spans="1:127">
       <c r="A82" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B82">
         <v>2013</v>
       </c>
       <c r="C82" t="s">
+        <v>630</v>
+      </c>
+      <c r="D82" t="s">
         <v>631</v>
-      </c>
-      <c r="D82" t="s">
-        <v>632</v>
       </c>
       <c r="E82" s="33">
         <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H82">
         <v>8</v>
@@ -26860,7 +26850,7 @@
         <v>1</v>
       </c>
       <c r="AR82" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AS82" t="s">
         <v>549</v>
@@ -26884,10 +26874,10 @@
         <v>136</v>
       </c>
       <c r="BD82" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="BE82" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="BH82">
         <v>1</v>
@@ -27046,13 +27036,13 @@
     </row>
     <row r="83" spans="1:127">
       <c r="A83" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B83">
         <v>2015</v>
       </c>
       <c r="C83" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D83" t="s">
         <v>132</v>
@@ -27175,7 +27165,7 @@
         <v>1</v>
       </c>
       <c r="AR83" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AW83">
         <v>999</v>
@@ -27184,7 +27174,7 @@
         <v>133</v>
       </c>
       <c r="AY83" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AZ83" t="s">
         <v>211</v>
@@ -27196,10 +27186,10 @@
         <v>212</v>
       </c>
       <c r="BD83" t="s">
+        <v>637</v>
+      </c>
+      <c r="BE83" t="s">
         <v>638</v>
-      </c>
-      <c r="BE83" t="s">
-        <v>639</v>
       </c>
       <c r="BH83">
         <v>999</v>
@@ -27358,16 +27348,16 @@
     </row>
     <row r="84" spans="1:127" ht="15.75" customHeight="1">
       <c r="A84" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B84">
         <v>2013</v>
       </c>
       <c r="C84" t="s">
+        <v>639</v>
+      </c>
+      <c r="D84" t="s">
         <v>640</v>
-      </c>
-      <c r="D84" t="s">
-        <v>641</v>
       </c>
       <c r="E84" s="33">
         <v>0</v>
@@ -27412,7 +27402,7 @@
         <v>1</v>
       </c>
       <c r="U84" s="28" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="W84">
         <v>46</v>
@@ -27463,13 +27453,13 @@
         <v>1</v>
       </c>
       <c r="AW84" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AX84" t="s">
         <v>247</v>
       </c>
       <c r="AY84" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AZ84" t="s">
         <v>135</v>
@@ -27481,7 +27471,7 @@
         <v>136</v>
       </c>
       <c r="BD84" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="BH84">
         <v>1</v>
@@ -27640,16 +27630,16 @@
     </row>
     <row r="85" spans="1:127">
       <c r="A85" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B85">
         <v>2015</v>
       </c>
       <c r="C85" t="s">
+        <v>645</v>
+      </c>
+      <c r="D85" t="s">
         <v>646</v>
-      </c>
-      <c r="D85" t="s">
-        <v>647</v>
       </c>
       <c r="E85" s="33">
         <v>0</v>
@@ -27697,13 +27687,13 @@
         <v>8</v>
       </c>
       <c r="X85" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="Y85">
         <v>40</v>
       </c>
       <c r="Z85" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="AA85">
         <v>2</v>
@@ -27715,7 +27705,7 @@
         <v>4</v>
       </c>
       <c r="AD85" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AE85">
         <v>4</v>
@@ -27757,7 +27747,7 @@
         <v>247</v>
       </c>
       <c r="AY85" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AZ85" t="s">
         <v>135</v>
@@ -27769,7 +27759,7 @@
         <v>212</v>
       </c>
       <c r="BD85" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="BH85" t="s">
         <v>132</v>
@@ -27802,13 +27792,13 @@
         <v>132</v>
       </c>
       <c r="BV85" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="BW85">
         <v>21.7</v>
       </c>
       <c r="BX85" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="BY85">
         <v>24.8</v>
@@ -27826,13 +27816,13 @@
         <v>132</v>
       </c>
       <c r="CD85" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="CE85">
         <v>21.1</v>
       </c>
       <c r="CF85" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="CG85">
         <v>24.8</v>
@@ -27950,10 +27940,10 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75">
       <c r="A1" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>656</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>657</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -27971,7 +27961,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
@@ -27990,13 +27980,13 @@
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D3" s="43"/>
       <c r="E3" s="43"/>
@@ -28013,13 +28003,13 @@
     </row>
     <row r="4" spans="1:15" ht="15.75">
       <c r="A4" s="9" t="s">
+        <v>660</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>661</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>662</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>663</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -28036,13 +28026,13 @@
     </row>
     <row r="5" spans="1:15" ht="15.75">
       <c r="A5" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>663</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>664</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>665</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -28059,13 +28049,13 @@
     </row>
     <row r="6" spans="1:15" ht="15.75">
       <c r="A6" s="9" t="s">
+        <v>665</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>666</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>667</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>668</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -28082,13 +28072,13 @@
     </row>
     <row r="7" spans="1:15" ht="15.75">
       <c r="A7" s="9" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>669</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>670</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -28105,13 +28095,13 @@
     </row>
     <row r="8" spans="1:15" ht="15.75">
       <c r="A8" s="9" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>670</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>671</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>672</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -28145,7 +28135,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="14" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -28198,7 +28188,7 @@
     </row>
     <row r="13" spans="1:15" ht="15.75">
       <c r="A13" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>13</v>
@@ -28232,13 +28222,13 @@
         <v>157</v>
       </c>
       <c r="D14" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>675</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="F14" s="10" t="s">
         <v>676</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>677</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -28269,7 +28259,7 @@
     </row>
     <row r="16" spans="1:15" ht="15.75">
       <c r="A16" s="9" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>14</v>
@@ -28302,19 +28292,19 @@
       <c r="A17" s="5"/>
       <c r="B17" s="8"/>
       <c r="C17" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>679</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="E17" s="10" t="s">
         <v>680</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="F17" s="10" t="s">
         <v>681</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="G17" s="11" t="s">
         <v>682</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>683</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -28328,7 +28318,7 @@
     <row r="18" spans="1:15" ht="15.75">
       <c r="A18" s="5"/>
       <c r="B18" s="11" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -28363,10 +28353,10 @@
     </row>
     <row r="20" spans="1:15" ht="15.75">
       <c r="A20" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>685</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>686</v>
       </c>
       <c r="C20" s="10">
         <v>1</v>
@@ -28390,10 +28380,10 @@
       <c r="A21" s="5"/>
       <c r="B21" s="8"/>
       <c r="C21" s="10" t="s">
+        <v>686</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>687</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>688</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -28410,7 +28400,7 @@
     <row r="22" spans="1:15" ht="15.75">
       <c r="A22" s="5"/>
       <c r="B22" s="11" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -28445,7 +28435,7 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="5" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="45"/>
@@ -28465,7 +28455,7 @@
     <row r="25" spans="1:15" ht="15.75">
       <c r="A25" s="9"/>
       <c r="B25" s="10" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C25" s="10">
         <v>1</v>
@@ -28489,10 +28479,10 @@
       <c r="A26" s="5"/>
       <c r="B26" s="8"/>
       <c r="C26" s="10" t="s">
+        <v>686</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>687</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>688</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -28509,7 +28499,7 @@
     <row r="27" spans="1:15" ht="15.75">
       <c r="A27" s="5"/>
       <c r="B27" s="11" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -28544,7 +28534,7 @@
     </row>
     <row r="29" spans="1:15" ht="15.75">
       <c r="A29" s="9" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>17</v>
@@ -28593,49 +28583,49 @@
       <c r="A30" s="5"/>
       <c r="B30" s="8"/>
       <c r="C30" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="D30" s="10" t="s">
         <v>693</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="E30" s="10" t="s">
         <v>694</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="F30" s="10" t="s">
         <v>695</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="G30" s="10" t="s">
         <v>696</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="H30" s="10" t="s">
         <v>697</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="I30" s="10" t="s">
         <v>698</v>
       </c>
-      <c r="I30" s="10" t="s">
+      <c r="J30" s="10" t="s">
         <v>699</v>
       </c>
-      <c r="J30" s="10" t="s">
+      <c r="K30" s="10" t="s">
         <v>700</v>
       </c>
-      <c r="K30" s="10" t="s">
+      <c r="L30" s="10" t="s">
         <v>701</v>
       </c>
-      <c r="L30" s="10" t="s">
+      <c r="M30" s="10" t="s">
         <v>702</v>
       </c>
-      <c r="M30" s="10" t="s">
+      <c r="N30" s="10" t="s">
         <v>703</v>
       </c>
-      <c r="N30" s="10" t="s">
+      <c r="O30" s="15" t="s">
         <v>704</v>
-      </c>
-      <c r="O30" s="15" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75">
       <c r="A31" s="5"/>
       <c r="B31" s="11" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -28670,10 +28660,10 @@
     </row>
     <row r="33" spans="1:15" ht="15.75">
       <c r="A33" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>706</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>707</v>
       </c>
       <c r="C33" s="10">
         <v>1</v>
@@ -28699,13 +28689,13 @@
       <c r="A34" s="5"/>
       <c r="B34" s="8"/>
       <c r="C34" s="10" t="s">
+        <v>707</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>708</v>
       </c>
-      <c r="D34" s="10" t="s">
-        <v>709</v>
-      </c>
       <c r="E34" s="15" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
@@ -28721,7 +28711,7 @@
     <row r="35" spans="1:15" ht="15.75">
       <c r="A35" s="5"/>
       <c r="B35" s="11" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
@@ -28756,7 +28746,7 @@
     </row>
     <row r="37" spans="1:15" ht="15.75">
       <c r="A37" s="9" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>19</v>
@@ -28783,10 +28773,10 @@
       <c r="A38" s="5"/>
       <c r="B38" s="8"/>
       <c r="C38" s="10" t="s">
+        <v>710</v>
+      </c>
+      <c r="D38" s="10" t="s">
         <v>711</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>712</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
@@ -28803,7 +28793,7 @@
     <row r="39" spans="1:15" ht="15.75">
       <c r="A39" s="5"/>
       <c r="B39" s="11" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
@@ -28838,7 +28828,7 @@
     </row>
     <row r="41" spans="1:15" ht="15.75">
       <c r="A41" s="9" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B41" s="18" t="s">
         <v>21</v>
@@ -28850,7 +28840,7 @@
         <v>10</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
@@ -28867,13 +28857,13 @@
       <c r="A42" s="5"/>
       <c r="B42" s="8"/>
       <c r="C42" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="D42" s="10" t="s">
         <v>715</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="E42" s="10" t="s">
         <v>716</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>717</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
@@ -28889,7 +28879,7 @@
     <row r="43" spans="1:15" ht="15.75">
       <c r="A43" s="5"/>
       <c r="B43" s="11" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
@@ -28924,7 +28914,7 @@
     </row>
     <row r="45" spans="1:15" ht="15.75">
       <c r="A45" s="9" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>32</v>
@@ -28963,28 +28953,28 @@
       <c r="A46" s="5"/>
       <c r="B46" s="8"/>
       <c r="C46" s="10" t="s">
+        <v>718</v>
+      </c>
+      <c r="D46" s="10" t="s">
         <v>719</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="E46" s="10" t="s">
         <v>720</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="F46" s="10" t="s">
         <v>721</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="G46" s="10" t="s">
         <v>722</v>
       </c>
-      <c r="G46" s="10" t="s">
+      <c r="H46" s="10" t="s">
         <v>723</v>
       </c>
-      <c r="H46" s="10" t="s">
+      <c r="I46" s="10" t="s">
         <v>724</v>
       </c>
-      <c r="I46" s="10" t="s">
-        <v>725</v>
-      </c>
       <c r="J46" s="19" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
@@ -28995,7 +28985,7 @@
     <row r="47" spans="1:15" ht="15.75">
       <c r="A47" s="12"/>
       <c r="B47" s="20" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C47" s="20"/>
       <c r="D47" s="20"/>
@@ -29013,7 +29003,7 @@
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="14" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -29032,7 +29022,7 @@
     </row>
     <row r="49" spans="1:15" ht="15.75">
       <c r="A49" s="9" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>33</v>
@@ -29069,25 +29059,25 @@
       <c r="A50" s="5"/>
       <c r="B50" s="8"/>
       <c r="C50" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="D50" s="10" t="s">
         <v>728</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="E50" s="10" t="s">
         <v>729</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="F50" s="10" t="s">
         <v>730</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="G50" s="10" t="s">
         <v>731</v>
       </c>
-      <c r="G50" s="10" t="s">
+      <c r="H50" s="10" t="s">
         <v>732</v>
       </c>
-      <c r="H50" s="10" t="s">
+      <c r="I50" s="10" t="s">
         <v>733</v>
-      </c>
-      <c r="I50" s="10" t="s">
-        <v>734</v>
       </c>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
@@ -29099,7 +29089,7 @@
     <row r="51" spans="1:15" ht="15.75">
       <c r="A51" s="5"/>
       <c r="B51" s="11" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C51" s="11">
         <v>10</v>
@@ -29136,10 +29126,10 @@
     </row>
     <row r="53" spans="1:15" ht="15.75">
       <c r="A53" s="21" t="s">
+        <v>734</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>735</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>736</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -29157,7 +29147,7 @@
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="14" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -29176,7 +29166,7 @@
     </row>
     <row r="55" spans="1:15" ht="15.75">
       <c r="A55" s="9" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B55" s="10" t="s">
         <v>34</v>
@@ -29209,19 +29199,19 @@
       <c r="A56" s="5"/>
       <c r="B56" s="8"/>
       <c r="C56" s="10" t="s">
+        <v>738</v>
+      </c>
+      <c r="D56" s="10" t="s">
         <v>739</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="E56" s="10" t="s">
         <v>740</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="F56" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="G56" s="10" t="s">
         <v>741</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>716</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>742</v>
       </c>
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
@@ -29235,7 +29225,7 @@
     <row r="57" spans="1:15" ht="15.75">
       <c r="A57" s="5"/>
       <c r="B57" s="11" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C57" s="11">
         <v>50</v>
@@ -29280,7 +29270,7 @@
     </row>
     <row r="59" spans="1:15" ht="15.75">
       <c r="A59" s="9" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>35</v>
@@ -29315,22 +29305,22 @@
       <c r="A60" s="5"/>
       <c r="B60" s="8"/>
       <c r="C60" s="10" t="s">
+        <v>743</v>
+      </c>
+      <c r="D60" s="10" t="s">
         <v>744</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="E60" s="10" t="s">
         <v>745</v>
       </c>
-      <c r="E60" s="10" t="s">
+      <c r="F60" s="10" t="s">
         <v>746</v>
       </c>
-      <c r="F60" s="10" t="s">
+      <c r="G60" s="10" t="s">
         <v>747</v>
       </c>
-      <c r="G60" s="10" t="s">
+      <c r="H60" s="10" t="s">
         <v>748</v>
-      </c>
-      <c r="H60" s="10" t="s">
-        <v>749</v>
       </c>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
@@ -29343,7 +29333,7 @@
     <row r="61" spans="1:15" ht="15.75">
       <c r="A61" s="5"/>
       <c r="B61" s="11" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C61" s="11">
         <v>41</v>
@@ -29427,7 +29417,7 @@
       <c r="A64" s="5"/>
       <c r="B64" s="8"/>
       <c r="C64" s="10" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>549</v>
@@ -29436,19 +29426,19 @@
         <v>351</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G64" s="10" t="s">
         <v>554</v>
       </c>
       <c r="H64" s="10" t="s">
+        <v>751</v>
+      </c>
+      <c r="I64" s="10" t="s">
         <v>752</v>
       </c>
-      <c r="I64" s="10" t="s">
-        <v>753</v>
-      </c>
       <c r="J64" s="20" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
@@ -29459,7 +29449,7 @@
     <row r="65" spans="1:15" ht="15.75">
       <c r="A65" s="12"/>
       <c r="B65" s="20" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C65" s="20">
         <v>13</v>
@@ -29499,15 +29489,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010093089F2F4B243042887FBB38A4F729BD" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="40f822ce5efa88f1d0492e193e2fbeb1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d6cd495c-3816-413d-9592-9f17c0251e63" xmlns:ns4="4944dd8a-df61-40f1-8cab-e57409e0e1ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ef91240634414b6f9e686dcb6c9ee21d" ns3:_="" ns4:_="">
     <xsd:import namespace="d6cd495c-3816-413d-9592-9f17c0251e63"/>
@@ -29722,6 +29703,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -29729,11 +29719,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724C3297-ABB0-4380-B931-FE44552FC69F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4651F76F-933F-4A7F-8C43-78946653EDBB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4651F76F-933F-4A7F-8C43-78946653EDBB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724C3297-ABB0-4380-B931-FE44552FC69F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
